--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Daisy(S)</t>
+          <t>Helen(F)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lili(F)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Matthew(F)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ka(F)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kit(F)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Paul(F)</t>
         </is>
       </c>
     </row>
@@ -453,7 +478,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -465,7 +515,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -477,7 +552,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -489,7 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -501,7 +626,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -513,7 +663,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -525,7 +700,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -537,7 +737,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -549,7 +774,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -561,7 +811,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -573,7 +848,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -585,7 +885,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -597,7 +922,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -609,7 +959,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -621,7 +996,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -636,6 +1036,31 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -645,7 +1070,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -657,7 +1107,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -669,7 +1144,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -681,7 +1181,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -693,7 +1218,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -705,7 +1255,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -717,7 +1292,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -729,7 +1329,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -741,7 +1366,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -753,7 +1403,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -765,7 +1440,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -777,7 +1477,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -789,7 +1514,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -801,7 +1551,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>Paul(F)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Test1(F)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>test2(F)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +516,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,7 +545,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,12 +555,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>7-16</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -577,7 +607,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -594,12 +634,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -615,6 +655,16 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>15-24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -654,6 +704,16 @@
           <t>15-24</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,6 +747,16 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -710,7 +780,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,10 +790,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -742,12 +822,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,10 +837,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -799,7 +889,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -836,7 +936,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -863,17 +973,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>7-16</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -885,7 +1005,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -910,7 +1030,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -950,6 +1080,16 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -987,6 +1127,16 @@
           <t>off</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1024,6 +1174,16 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1061,6 +1221,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1098,6 +1268,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1117,22 +1297,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>15-24</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1339,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>15-24</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -1196,15 +1396,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1218,7 +1428,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1238,10 +1448,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1275,12 +1495,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1542,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1357,6 +1597,16 @@
           <t>off</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1394,6 +1644,16 @@
           <t>15-24</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1403,7 +1663,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1427,6 +1687,16 @@
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1468,6 +1738,16 @@
           <t>off</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1505,6 +1785,16 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1542,6 +1832,16 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1577,6 +1877,16 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>7-16</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>off</t>
         </is>
       </c>
     </row>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Test1(F)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>test2(F)</t>
+          <t>test1(F)</t>
         </is>
       </c>
     </row>
@@ -488,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,12 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -545,7 +535,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,12 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
     </row>
@@ -582,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +587,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -613,11 +598,6 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>10-19</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>off</t>
         </is>
       </c>
     </row>
@@ -662,11 +642,6 @@
           <t>7-16</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -709,11 +684,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -756,11 +726,6 @@
           <t>15-24</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -780,32 +745,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
     </row>
@@ -827,7 +787,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -837,20 +797,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -897,11 +852,6 @@
           <t>7-16</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -944,11 +894,6 @@
           <t>10-19</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -991,11 +936,6 @@
           <t>15-24</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1005,7 +945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1030,15 +970,10 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1085,11 +1020,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1109,7 +1039,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1119,7 +1049,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1128,11 +1058,6 @@
         </is>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1179,11 +1104,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1226,11 +1146,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1273,11 +1188,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1320,11 +1230,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1367,11 +1272,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1381,7 +1281,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1396,7 +1296,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1410,11 +1310,6 @@
         </is>
       </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1428,7 +1323,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1448,7 +1343,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1457,11 +1352,6 @@
         </is>
       </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1495,20 +1385,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1542,20 +1427,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1602,11 +1482,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1649,11 +1524,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1663,7 +1533,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1688,15 +1558,10 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1710,7 +1575,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1735,15 +1600,10 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1790,11 +1650,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1837,11 +1692,6 @@
           <t>off</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1880,11 +1730,6 @@
         </is>
       </c>
       <c r="H31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>off</t>
         </is>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Helen(F)</t>
+          <t>Helen</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Lili(F)</t>
+          <t>Lili</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Matthew(F)</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ka(F)</t>
+          <t>Ka</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Kit(F)</t>
+          <t>Kit</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Paul(F)</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>test1(F)</t>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>test2</t>
         </is>
       </c>
     </row>
@@ -516,6 +521,11 @@
           <t>15-24</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,6 +568,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +615,11 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,7 +634,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>7-16</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -656,7 +681,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -682,6 +707,11 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>off</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -726,6 +756,11 @@
           <t>15-24</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +803,11 @@
           <t>15-24</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -810,6 +850,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -852,6 +897,11 @@
           <t>7-16</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +944,11 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -928,12 +983,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>15-24</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -978,6 +1038,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1020,6 +1085,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1039,7 +1109,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1060,6 +1130,11 @@
       <c r="H15" t="inlineStr">
         <is>
           <t>off</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1171,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>off</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -1146,6 +1226,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1188,6 +1273,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1230,6 +1320,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1272,6 +1367,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1314,6 +1414,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1356,6 +1461,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1398,6 +1508,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1440,6 +1555,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1482,6 +1602,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1524,6 +1649,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,7 +1678,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1558,10 +1688,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>off</t>
         </is>
@@ -1608,6 +1743,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1650,6 +1790,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1692,6 +1837,11 @@
           <t>off</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1730,6 +1880,11 @@
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>off</t>
         </is>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>Daisy</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>Tak</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,22 +602,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -780,32 +780,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -889,17 +889,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -973,27 +973,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1082,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1270,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1339,22 +1339,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1505,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1552,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1599,12 +1599,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1688,17 +1688,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1735,17 +1735,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1787,12 +1787,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1834,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1218,17 +1218,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>13-22</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,41 @@
           <t>Tak</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Waiyee</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cindy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ivy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Aasta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Carol</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jackie</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Tiffany</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,24 +523,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>off</t>
@@ -513,17 +548,52 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
     </row>
@@ -535,42 +605,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -582,42 +687,77 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -629,42 +769,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PH</t>
         </is>
       </c>
     </row>
@@ -676,27 +851,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -706,12 +881,47 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -723,7 +933,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,32 +943,67 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>自由調配</t>
         </is>
       </c>
     </row>
@@ -775,24 +1020,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>off</t>
@@ -800,12 +1045,47 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -817,42 +1097,77 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7-16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -864,42 +1179,77 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>AL</t>
         </is>
       </c>
     </row>
@@ -916,37 +1266,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
     </row>
@@ -958,12 +1343,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -978,22 +1363,57 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1005,27 +1425,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1035,12 +1455,47 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1507,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1077,17 +1532,52 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>PH</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1589,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1119,22 +1609,57 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1146,42 +1671,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>自由調配</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1753,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1223,12 +1783,47 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1835,77 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1297,14 +1927,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>15-24</t>
@@ -1312,17 +1942,52 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>AL</t>
         </is>
       </c>
     </row>
@@ -1334,42 +1999,77 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
     </row>
@@ -1381,19 +2081,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>10-19</t>
@@ -1411,12 +2111,47 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1433,7 +2168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1453,17 +2188,52 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1480,37 +2250,72 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>PH</t>
         </is>
       </c>
     </row>
@@ -1522,27 +2327,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1552,12 +2357,47 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -1569,29 +2409,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>off</t>
@@ -1599,12 +2439,47 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>自由調配</t>
         </is>
       </c>
     </row>
@@ -1616,17 +2491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1646,12 +2521,47 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>off</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1663,27 +2573,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7-16</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1693,12 +2603,47 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1710,22 +2655,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1740,12 +2685,47 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>13-22</t>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>AL</t>
         </is>
       </c>
     </row>
@@ -1757,12 +2737,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1772,7 +2752,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1782,17 +2762,52 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
     </row>
@@ -1804,22 +2819,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1829,24 +2844,59 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>17/04/2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1856,17 +2906,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1876,17 +2926,52 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,16 @@
           <t>Tiffany</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Caroline</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CandyC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +563,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>half off</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -594,6 +604,16 @@
       <c r="P2" t="inlineStr">
         <is>
           <t>CL</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -635,7 +655,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -674,6 +694,16 @@
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -717,7 +747,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -756,6 +786,16 @@
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -842,6 +882,16 @@
           <t>PH</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -881,7 +931,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -922,6 +972,16 @@
       <c r="P6" t="inlineStr">
         <is>
           <t>ON</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -963,7 +1023,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1004,6 +1064,16 @@
       <c r="P7" t="inlineStr">
         <is>
           <t>自由調配</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1088,6 +1158,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1170,6 +1250,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1252,6 +1342,16 @@
           <t>AL</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1291,7 +1391,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1332,6 +1432,16 @@
       <c r="P11" t="inlineStr">
         <is>
           <t>CL</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1483,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1412,6 +1522,16 @@
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -1498,6 +1618,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1580,6 +1710,16 @@
           <t>PH</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1619,7 +1759,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1660,6 +1800,16 @@
       <c r="P15" t="inlineStr">
         <is>
           <t>ON</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1851,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1742,6 +1892,16 @@
       <c r="P16" t="inlineStr">
         <is>
           <t>自由調配</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -1826,6 +1986,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1908,6 +2078,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1990,6 +2170,16 @@
           <t>AL</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2029,7 +2219,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2070,6 +2260,16 @@
       <c r="P20" t="inlineStr">
         <is>
           <t>CL</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2311,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2150,6 +2350,16 @@
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -2236,6 +2446,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2318,6 +2538,16 @@
           <t>PH</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2357,7 +2587,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2398,6 +2628,16 @@
       <c r="P24" t="inlineStr">
         <is>
           <t>ON</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2679,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2480,6 +2720,16 @@
       <c r="P25" t="inlineStr">
         <is>
           <t>自由調配</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2771,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2560,6 +2810,16 @@
         </is>
       </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -2646,6 +2906,16 @@
           <t>10-19</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2728,6 +2998,16 @@
           <t>AL</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2767,7 +3047,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2808,6 +3088,16 @@
       <c r="P29" t="inlineStr">
         <is>
           <t>CL</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -2849,7 +3139,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2888,6 +3178,16 @@
         </is>
       </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
@@ -2970,6 +3270,16 @@
         </is>
       </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>

--- a/schedule_with_senior_editors.xlsx
+++ b/schedule_with_senior_editors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>16/03/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -558,91 +558,91 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>half off</t>
+          <t>off</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>off</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>off</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>off</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>off</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>off</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>off</t>
@@ -650,7 +650,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -660,121 +660,121 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>half off</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19/03/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>10-19</t>
@@ -782,7 +782,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -792,19 +792,19 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -814,37 +814,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -869,131 +869,131 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>20/03/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>13-22</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1028,59 +1028,59 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>13-22</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>22/03/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,144 +1090,144 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>23/03/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1252,24 +1252,24 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1284,22 +1284,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1314,59 +1314,59 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1376,111 +1376,111 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>13-22</t>
@@ -1488,74 +1488,74 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28/03/2025</t>
+          <t>27/03/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1565,44 +1565,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>10-19</t>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1620,39 +1620,39 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29/03/2025</t>
+          <t>28/03/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1697,44 +1697,44 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/03/2025</t>
+          <t>29/03/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1754,101 +1754,101 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>13-22</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>30/03/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>13-22</t>
@@ -1856,59 +1856,59 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>13-22</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>31/03/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1918,99 +1918,99 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2020,42 +2020,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2080,54 +2080,54 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03/04/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2142,173 +2142,173 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>03/04/2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05/04/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>13-22</t>
@@ -2316,64 +2316,64 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/04/2025</t>
+          <t>05/04/2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2398,39 +2398,39 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>10-19</t>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2448,24 +2448,24 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07/04/2025</t>
+          <t>06/04/2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2475,32 +2475,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2525,143 +2525,143 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>07/04/2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>13-22</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>09/04/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>7-16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>0930-1830</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>15-24</t>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2684,69 +2684,69 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>13-22</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>09/04/2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2756,17 +2756,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2776,114 +2776,114 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11/04/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>7-16</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>15-24</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0930-1830</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15-24</t>
+          <t>off</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>自由調配</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2908,44 +2908,44 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12/04/2025</t>
+          <t>11/04/2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7-16</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>0930-1830</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2970,49 +2970,49 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>自由調配</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13/04/2025</t>
+          <t>12/04/2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3047,74 +3047,74 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>13-22</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14/04/2025</t>
+          <t>13/04/2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0930-1830</t>
+          <t>off</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>7-16</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3144,144 +3144,236 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>自由調配</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>15-24</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>8-17</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0930-1830</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>13-22</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>自由調配</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>8-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>17/04/2025</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>自由調配</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>10-19</t>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>15-24</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>8-17</t>
         </is>
       </c>
     </row>
